--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="8850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Shopping</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Hommes</t>
   </si>
   <si>
-    <t>Carrière</t>
-  </si>
-  <si>
     <t>High tech</t>
   </si>
   <si>
@@ -117,18 +114,9 @@
     <t>Situation professionnelle</t>
   </si>
   <si>
-    <t>Revenu</t>
-  </si>
-  <si>
     <t>Situation personnelle</t>
   </si>
   <si>
-    <t>Foyer</t>
-  </si>
-  <si>
-    <t>Urbanité</t>
-  </si>
-  <si>
     <t>Automobile</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
   </si>
   <si>
     <t>INTENTIONS</t>
-  </si>
-  <si>
-    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -271,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -539,74 +524,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -650,15 +585,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,14 +653,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1305,129 +1226,129 @@
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+    <row r="1" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
-        <v>44</v>
+      <c r="B5" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
+      <c r="B7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30" t="s">
+      <c r="B9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30" t="s">
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="50"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1441,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L40"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,394 +1378,391 @@
     <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="82"/>
-      <c r="K1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="55"/>
-    </row>
-    <row r="2" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-    </row>
-    <row r="3" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+    <row r="1" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="G5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="80"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="80"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="56"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="J8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="12"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="24" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="24" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="12"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="4"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="24" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="54" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="12"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
       <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21" spans="2:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="56"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="12"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="5"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="G27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="12"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="57"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="61"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="62"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
   </sheetData>
   <sortState ref="G9:G33">
@@ -1926,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,358 +1860,436 @@
     <col min="8" max="8" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="H1" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-    </row>
-    <row r="3" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-    </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-      <c r="D5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="77"/>
-    </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="5"/>
-      <c r="D6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="80"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="13"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="21"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="16"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E46" s="19"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
     </row>
   </sheetData>
   <sortState ref="C16:C100">
@@ -2414,7 +2410,7 @@
   <dimension ref="B1:L73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,898 +2429,895 @@
     <col min="17" max="17" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="82"/>
-      <c r="K1" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+    <row r="1" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="E5" s="75" t="s">
+      <c r="B5" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="E5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="H5" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="77"/>
-      <c r="K5" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="88"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="88"/>
+      <c r="F5" s="59"/>
+      <c r="H5" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="K5" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="62"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="62"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
